--- a/kirara/spec/spec.xlsx
+++ b/kirara/spec/spec.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8d4420197fcefeb/Documents/_Work/Github/lm4183-0.github.io/kirara/spec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{FCB778B4-05E8-4C66-950F-2034A151B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91FC13E1-07BC-40C1-B1E2-0E06853FB46F}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{FCB778B4-05E8-4C66-950F-2034A151B491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFA25C9-E1BF-4DF1-A863-3C3A768B3C75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF333A9A-16A5-4B02-8147-01028A0D9A08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF333A9A-16A5-4B02-8147-01028A0D9A08}"/>
   </bookViews>
   <sheets>
     <sheet name="spec_struct" sheetId="1" r:id="rId1"/>
+    <sheet name="vba" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,88 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="24">
+  <si>
+    <t>作品名</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>Aチャンネル</t>
+  </si>
+  <si>
+    <t>黒田bb</t>
+  </si>
+  <si>
+    <t>GA 芸術科アートデザインクラス</t>
+  </si>
+  <si>
+    <t>きゆづきさとこ</t>
+  </si>
+  <si>
+    <t>JKすぷらっしゅ！</t>
+  </si>
+  <si>
+    <t>春雨</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>あfろ</t>
+  </si>
+  <si>
+    <t>NEW GAME!</t>
+  </si>
+  <si>
+    <t>得能正太郎</t>
+  </si>
+  <si>
+    <t>RPG不動産</t>
+  </si>
+  <si>
+    <t>険持ちよ</t>
+  </si>
+  <si>
+    <t>TBoコミック</t>
+  </si>
+  <si>
+    <t>TBoコミック(巻)</t>
+  </si>
+  <si>
+    <t>巻</t>
+  </si>
+  <si>
+    <t>TBoコミック(巻)(初出一覧)</t>
+  </si>
+  <si>
+    <t>初出一覧</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,7 +1953,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>excel</a:t>
+            <a:t>access</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3546,6 +3629,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3875,7 +3962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4540C474-AB80-410B-9202-93E1D9FCFA21}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3887,4 +3974,959 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728FC9A8-B84D-4BBA-A24C-1074FBB5D540}">
+  <dimension ref="C2:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>19</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>9</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>